--- a/data/post.xlsx
+++ b/data/post.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Desktop\TAPProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1AC3F3-92F1-4461-B82D-D5CABD803A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A790B9B-6EAB-45C1-942E-96D3CD64E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2424" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="171">
   <si>
     <t>How knowledgeable are you with Python?</t>
   </si>
@@ -124,9 +124,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>sing or play instruments (can read music)</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Tehnilenco</t>
   </si>
   <si>
-    <t>Sing or play instruments (without score)</t>
-  </si>
-  <si>
     <t>Goodwin</t>
   </si>
   <si>
@@ -530,6 +524,15 @@
   </si>
   <si>
     <t>Kirstin</t>
+  </si>
+  <si>
+    <t>Sing or play instruments (cannot read music)</t>
+  </si>
+  <si>
+    <t>Sing or play instruments cannot read music)</t>
+  </si>
+  <si>
+    <t>Sing or play instruments (can read music)</t>
   </si>
 </sst>
 </file>
@@ -847,8 +850,8 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -873,10 +876,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -909,13 +912,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
@@ -929,10 +932,10 @@
     </row>
     <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -947,19 +950,19 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
@@ -985,10 +988,10 @@
     </row>
     <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1000,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
@@ -1015,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>24</v>
@@ -1041,10 +1044,10 @@
     </row>
     <row r="4" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1071,7 +1074,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>24</v>
@@ -1086,48 +1089,48 @@
         <v>0.78</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>24</v>
@@ -1145,18 +1148,18 @@
         <v>25</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -1168,22 +1171,22 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>24</v>
@@ -1201,18 +1204,18 @@
         <v>25</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1227,19 +1230,19 @@
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>24</v>
@@ -1257,48 +1260,48 @@
         <v>25</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1316,15 +1319,15 @@
         <v>26</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1336,22 +1339,22 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>24</v>
@@ -1366,21 +1369,21 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -1392,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>31</v>
@@ -1407,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>24</v>
@@ -1425,18 +1428,18 @@
         <v>25</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1445,25 +1448,25 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>24</v>
@@ -1484,15 +1487,15 @@
         <v>26</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1507,19 +1510,19 @@
         <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>24</v>
@@ -1537,18 +1540,18 @@
         <v>25</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -1560,19 +1563,19 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>23</v>
@@ -1590,21 +1593,21 @@
         <v>0.67</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1619,16 +1622,16 @@
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>23</v>
@@ -1649,18 +1652,18 @@
         <v>25</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
@@ -1702,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>26</v>
@@ -1713,10 +1716,10 @@
     </row>
     <row r="16" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1725,22 +1728,22 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>23</v>
@@ -1764,15 +1767,15 @@
         <v>26</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1784,22 +1787,22 @@
         <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>24</v>
@@ -1820,15 +1823,15 @@
         <v>26</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1840,7 +1843,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>19</v>
@@ -1852,7 +1855,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>23</v>
@@ -1870,21 +1873,21 @@
         <v>0.78</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1911,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>24</v>
@@ -1932,42 +1935,42 @@
         <v>26</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>24</v>
@@ -1988,15 +1991,15 @@
         <v>26</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
@@ -2008,7 +2011,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>19</v>
@@ -2020,13 +2023,13 @@
         <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1">
         <v>1</v>
@@ -2041,36 +2044,36 @@
         <v>25</v>
       </c>
       <c r="Q21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>21</v>
@@ -2079,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>24</v>
@@ -2100,15 +2103,15 @@
         <v>26</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -2117,25 +2120,25 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>24</v>
@@ -2153,18 +2156,18 @@
         <v>25</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -2185,13 +2188,13 @@
         <v>20</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>24</v>
@@ -2212,15 +2215,15 @@
         <v>26</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -2232,13 +2235,13 @@
         <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>21</v>
@@ -2247,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>24</v>
@@ -2265,18 +2268,18 @@
         <v>25</v>
       </c>
       <c r="Q25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
@@ -2288,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>19</v>
@@ -2303,7 +2306,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>24</v>
@@ -2324,15 +2327,15 @@
         <v>26</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -2356,13 +2359,13 @@
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -2374,21 +2377,21 @@
         <v>0.67</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>30</v>
@@ -2403,19 +2406,19 @@
         <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>24</v>
@@ -2436,15 +2439,15 @@
         <v>26</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>30</v>
@@ -2459,19 +2462,19 @@
         <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>24</v>
@@ -2489,18 +2492,18 @@
         <v>25</v>
       </c>
       <c r="Q29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>30</v>
@@ -2509,25 +2512,25 @@
         <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>24</v>
@@ -2542,21 +2545,21 @@
         <v>0.22</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>30</v>
@@ -2574,19 +2577,19 @@
         <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -2601,18 +2604,18 @@
         <v>25</v>
       </c>
       <c r="Q31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>15</v>
@@ -2624,7 +2627,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
@@ -2636,10 +2639,10 @@
         <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>24</v>
@@ -2660,15 +2663,15 @@
         <v>26</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>30</v>
@@ -2680,19 +2683,19 @@
         <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>23</v>
@@ -2710,13 +2713,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="Q33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
@@ -2766,7 +2769,7 @@
         <v>0.67</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>26</v>
@@ -2777,10 +2780,10 @@
     </row>
     <row r="35" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -2804,7 +2807,7 @@
         <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>23</v>
@@ -2822,21 +2825,21 @@
         <v>0.89</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>30</v>
@@ -2845,13 +2848,13 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>20</v>
@@ -2860,13 +2863,13 @@
         <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -2878,21 +2881,21 @@
         <v>0.33</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>30</v>
@@ -2904,10 +2907,10 @@
         <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>32</v>
@@ -2916,10 +2919,10 @@
         <v>21</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>24</v>
@@ -2937,18 +2940,18 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>30</v>
@@ -2960,22 +2963,22 @@
         <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>24</v>
@@ -2993,18 +2996,18 @@
         <v>25</v>
       </c>
       <c r="Q38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>30</v>
@@ -3019,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>20</v>
@@ -3028,10 +3031,10 @@
         <v>21</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>24</v>
@@ -3049,18 +3052,18 @@
         <v>25</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>30</v>
@@ -3069,13 +3072,13 @@
         <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>20</v>
@@ -3105,18 +3108,18 @@
         <v>25</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>30</v>
@@ -3143,7 +3146,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>24</v>
@@ -3161,18 +3164,18 @@
         <v>25</v>
       </c>
       <c r="Q41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>30</v>
@@ -3184,22 +3187,22 @@
         <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>24</v>
@@ -3214,48 +3217,48 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>24</v>
@@ -3273,10 +3276,10 @@
         <v>25</v>
       </c>
       <c r="Q43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
@@ -3337,10 +3340,10 @@
     </row>
     <row r="45" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>30</v>
@@ -3352,10 +3355,10 @@
         <v>17</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>20</v>
@@ -3388,15 +3391,15 @@
         <v>26</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>30</v>
@@ -3420,10 +3423,10 @@
         <v>21</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>24</v>
@@ -3438,21 +3441,21 @@
         <v>0.78</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -3461,10 +3464,10 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>19</v>
@@ -3476,7 +3479,7 @@
         <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>23</v>
@@ -3494,21 +3497,21 @@
         <v>0.67</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -3520,22 +3523,22 @@
         <v>17</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>24</v>
@@ -3556,15 +3559,15 @@
         <v>26</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>30</v>
@@ -3573,25 +3576,25 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>24</v>
@@ -3606,21 +3609,21 @@
         <v>0.44</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -3638,19 +3641,19 @@
         <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -3668,27 +3671,27 @@
         <v>26</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>19</v>
@@ -3700,7 +3703,7 @@
         <v>21</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>23</v>
@@ -3724,15 +3727,15 @@
         <v>26</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
@@ -3780,45 +3783,45 @@
         <v>26</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -3836,15 +3839,15 @@
         <v>26</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>30</v>
@@ -3862,7 +3865,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>21</v>
@@ -3871,7 +3874,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>24</v>
@@ -3892,15 +3895,15 @@
         <v>26</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>30</v>
@@ -3912,22 +3915,22 @@
         <v>17</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>24</v>
@@ -3948,15 +3951,15 @@
         <v>26</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -3980,10 +3983,10 @@
         <v>21</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>24</v>
@@ -3998,16 +4001,19 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R56">
+    <sortCondition ref="A2:A56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/post.xlsx
+++ b/data/post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Desktop\TAPProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A790B9B-6EAB-45C1-942E-96D3CD64E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41266304-1EF3-430C-98CE-28124DAC4A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="170">
   <si>
     <t>How knowledgeable are you with Python?</t>
   </si>
@@ -527,9 +527,6 @@
   </si>
   <si>
     <t>Sing or play instruments (cannot read music)</t>
-  </si>
-  <si>
-    <t>Sing or play instruments cannot read music)</t>
   </si>
   <si>
     <t>Sing or play instruments (can read music)</t>
@@ -849,9 +846,9 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1086,7 @@
         <v>0.78</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>26</v>
@@ -1369,7 +1366,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>39</v>
@@ -1593,7 +1590,7 @@
         <v>0.67</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>26</v>
@@ -1705,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>26</v>
@@ -1873,7 +1870,7 @@
         <v>0.78</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>26</v>
@@ -2377,7 +2374,7 @@
         <v>0.67</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>39</v>
@@ -2713,7 +2710,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>39</v>
@@ -2769,7 +2766,7 @@
         <v>0.67</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>26</v>
@@ -2825,7 +2822,7 @@
         <v>0.89</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>26</v>
@@ -3217,7 +3214,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>26</v>
@@ -3441,7 +3438,7 @@
         <v>0.78</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>26</v>
@@ -3497,7 +3494,7 @@
         <v>0.67</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>26</v>
@@ -3609,7 +3606,7 @@
         <v>0.44</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>26</v>
@@ -4001,7 +3998,7 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>39</v>
